--- a/Data/Transitions/19271938Translation.xlsx
+++ b/Data/Transitions/19271938Translation.xlsx
@@ -31,7 +31,7 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 1.0, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.825592149125948e-05}</t>
+    <t>{14.0: 1.0, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.8643126920415906e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -100,19 +100,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.005317945236478841, 246.0: 0.0014045075103535124}</t>
+    <t>{46.0: 1.0, 90.0: 0.005340909090909091, 246.0: 0.0014045099541301804}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -145,25 +145,25 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9953111643701735, 172.0: 0.0017468944099378882}</t>
+    <t>{81.0: 0.995311121593319, 172.0: 0.0017377872176095772}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,10 +187,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9990717103736366}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{85.0: 0.9990749306197965}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,13 +202,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,22 +244,22 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 1.0, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 1.0, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.0022166395744052016, 543.0: 0.0010720376052441311}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816, 543.0: 0.0011260162595893744}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -313,13 +313,13 @@
     <t>{165.0: 1.0, 914.0: 0.02521597011440579}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7237212009969225}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621, 81.0: 0.004688835629826501}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.001996976987059545}</t>
-  </si>
-  <si>
-    <t>{174.0: 1.0, 502.0: 0.006638636866563399}</t>
+    <t>{171.0: 0.7267679586988522}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905, 81.0: 0.004688878406681026}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.0020136374149495482}</t>
+  </si>
+  <si>
+    <t>{174.0: 1.0, 502.0: 0.0066181336863004635}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,7 +349,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015}</t>
+    <t>{178.0: 0.9998367080339647}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -361,25 +361,25 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9977983777520278}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0036723380510758886, 593.0: 0.0009507381887469634, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.9977896696137738}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.003644673256631927, 593.0: 0.000950454102370883, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9947134446713926}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.00537477625323952}</t>
+    <t>{202.0: 0.994717887154862}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005373166020931479}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,7 +388,7 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
@@ -415,13 +415,13 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9961354256592442}</t>
+    <t>{246.0: 0.9961315884520018}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
@@ -547,10 +550,10 @@
     <t>{264.0: 0.9882673014793403}</t>
   </si>
   <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -577,10 +580,10 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9241202463711181}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 757.0: 0.02934816187828236}</t>
+    <t>{277.0: 0.9239091916149851}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 757.0: 0.03518518518518519}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 1.0, 182.0: 0.0009269988412514484}</t>
+    <t>{282.0: 1.0, 182.0: 0.0009306654257794323}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -604,13 +607,13 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.585426628960308e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.5879010765889695e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -688,13 +691,13 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,10 +706,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -721,13 +721,13 @@
     <t>{402.0: 1.0, 476.0: 0.017738726790450927}</t>
   </si>
   <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6820924521425258}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.30840026047319297}</t>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6792670213096476}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31114225648213034}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,10 +736,10 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.996164500319625}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -778,13 +778,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -832,7 +832,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 0.982261273209549}</t>
   </si>
   <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 1.0, 942.0: 0.009202453987730062}</t>
+    <t>{479.0: 1.0, 942.0: 0.009213051823416507}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -877,16 +877,16 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7693786822363734}</t>
+    <t>{492.0: 0.7694147161571426}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -907,19 +907,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.980110380594447}</t>
+    <t>{543.0: 0.9800564019401017}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7520308837870637, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.7512054233743913, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9967745561456847, 686.0: 0.009832174944905916}</t>
+    <t>{593.0: 0.9967788758222881, 686.0: 0.009728279100972828}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,13 +1075,13 @@
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1129,7 +1129,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009433937212400633, 789.0: 0.004051324983440062}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009489582591142481, 789.0: 0.004051002677320427}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8069981583793738}</t>
+    <t>{634.0: 0.8128571428571428}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1210,7 +1210,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
+    <t>{686.0: 0.9902717208990272}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1246,16 +1246,16 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.002461571386146781}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9970840758140288, 492.0: 0.0062425109321501155}</t>
+    <t>{695.0: 1.0, 857.0: 0.0024608588536349676}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9970049916805325, 492.0: 0.006206089805951784}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9978908188585608}</t>
+    <t>{698.0: 0.9978753983628069}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8105968747713526}</t>
+    <t>{702.0: 0.8104614690538164}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1279,10 +1279,10 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24651638430607126}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24737822594408024}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1300,7 +1300,7 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1309,16 +1309,16 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378, 246.0: 0.0002554275350402646}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661, 246.0: 0.000255116027440638}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.001452731906864901}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0014163506815283013}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.4164349706518381}</t>
+    <t>{757.0: 0.30037037037037034}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1411,7 +1411,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 1.0, 757.0: 0.5542168674698795}</t>
+    <t>{773.0: 1.0, 757.0: 0.6644444444444444}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01830002189473766, 184.0: 0.0020208824520040417, 593.0: 0.00123755688186106}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018088971578194488, 184.0: 0.0020373514431239388, 593.0: 0.001237224002436105}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 1.0, 168.0: 0.001507017048130357, 930.0: 0.00021291327605272697}</t>
+    <t>{782.0: 1.0, 168.0: 0.0015194681861348527, 930.0: 0.00021627151653333087}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,13 +1450,13 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8282179270067861, 246.0: 0.0012612455741220093}</t>
+    <t>{789.0: 0.8282314689494136, 246.0: 0.0012598273073130893}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1471,13 +1471,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1510,25 +1510,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 1.0, 922.0: 0.0021961367013480773}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.005286555328607473, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 1.0, 922.0: 0.002268201093897679}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.005282112845138055, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9921580669339848}</t>
+    <t>{857.0: 0.9921603872243571}</t>
   </si>
   <si>
     <t>{858.0: 1.0, 543.0: 0.018817581800308944}</t>
@@ -1549,13 +1549,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1597,7 +1597,7 @@
     <t>{897.0: 1.0}</t>
   </si>
   <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1621,19 +1621,19 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9899508515307487}</t>
+    <t>{922.0: 0.9899825389827256}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.007853011767903095, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.42347160965860076}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.5763154770653466, 929.0: 0.0017969956479011652}</t>
+    <t>{928.0: 1.0, 922.0: 0.007749259923376745, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.43224189401836743}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.5675418344650992, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,19 +1675,19 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1702,19 +1702,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1723,10 +1723,10 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1753,7 +1753,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.995576199955762}</t>
+    <t>{992.0: 0.9955840141311548}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1762,19 +1762,19 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994829, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519681, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.005717900736820557, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841024}</t>
+    <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841025}</t>
   </si>
   <si>
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.982318384720093, 90.0: 0.014240889599581854, 246.0: 0.003440725680325305}</t>
+    <t>{46.0: 0.9823183847200929, 90.0: 0.01424088959958185, 246.0: 0.003440725680325305}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1786,13 +1786,13 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816092}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.998538267869943, 172.0: 0.001461732130057138}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491797, 172.0: 0.001462926550820381}</t>
   </si>
   <si>
     <t>{85.0: 1.0}</t>
@@ -1804,7 +1804,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9998846584588138, 92.0: 0.00011534154118623194}</t>
+    <t>{91.0: 0.9998846584588138, 92.0: 0.00011534154118623197}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1813,13 +1813,13 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136325, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9974495015699062, 86.0: 0.001732084107843088, 543.0: 0.0008184143222506395}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487131}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9974548159024922, 86.0: 0.0017320933362511446, 543.0: 0.0008130907612562254}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1828,19 +1828,19 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9990500316656113, 975.0: 0.0009499683343888536}</t>
+    <t>{152.0: 0.9990500316656109, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{165.0: 0.9867533423279774, 914.0: 0.013246657672022568}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589457, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1849,10 +1849,10 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
+    <t>{172.0: 0.9946275071633237, 81.0: 0.0053724928366762174}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
@@ -1864,10 +1864,10 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{183.0: 0.9962354551676933, 182.0: 0.0037645448323066393}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9835310975016114, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983828}</t>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.003599476439790576}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.98348801718129, 171.0: 0.011407602914240296, 593.0: 0.0034060103392520736, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1876,10 +1876,10 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{204.0: 0.9946682464454977, 857.0: 0.005331753554502371}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1888,22 +1888,22 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.989309783871717, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.0998463901689708}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410512, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848485, 409.0: 0.010890151515151516}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310295, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648752, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9998191354675349, 297.0: 0.00018086453246518358}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9998209810239885, 297.0: 0.00017901897601145723}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.007619047619047622}</t>
   </si>
   <si>
     <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364934}</t>
@@ -1933,13 +1933,13 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 0.9753822233739311, 757.0: 0.02461777662606893}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.996816553919618, 182.0: 0.003183446080382013}</t>
-  </si>
-  <si>
-    <t>{286.0: 0.915679942590599, 909.0: 0.08432005740940077}</t>
+    <t>{278.0: 0.975382223373931, 757.0: 0.02461777662606893}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9967186218211649, 182.0: 0.0032813781788351114}</t>
+  </si>
+  <si>
+    <t>{286.0: 0.9161163662323754, 909.0: 0.08388363376762448}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -1948,28 +1948,28 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938825, 297.0: 0.013922582006117498}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.997696737044146, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9617261904761903, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.07314326591581212, 204.0: 0.0010707941656292628, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
+    <t>{298.0: 0.9860788863109049, 297.0: 0.013921113689095127}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9617261904761906, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879632, 426.0: 0.070862736858608, 204.0: 0.001018084182646364, 857.0: 5.457270782499868e-06}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616966}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843466, 476.0: 0.010409572915653274}</t>
+    <t>{402.0: 0.9895904270843465, 476.0: 0.010409572915653274}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
@@ -1978,28 +1978,28 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.365657648004286, 404.0: 0.6343423519957139}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917455, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864617}</t>
+    <t>{419.0: 0.9852607709750568, 17.0: 0.014739229024943313}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2020,16 +2020,16 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.977859778597786, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022112}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.960999621355547, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.022085889570552148}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.3844694974186071}</t>
@@ -2038,7 +2038,7 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775399, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2062,16 +2062,16 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.6131836291198841, 742.0: 0.38681637088011595}</t>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.6131836291198841, 742.0: 0.3868163708801159}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247017, 686.0: 0.005445498075298094}</t>
+    <t>{593.0: 0.99456419868791, 686.0: 0.005435801312089972}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2092,7 +2092,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0019026021155964612, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025539, 887.0: 0.01304608360679127, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -2110,10 +2110,10 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9938114306516198, 857.0: 0.006188569348380051}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{695.0: 0.9937865497076025, 857.0: 0.0062134502923976605}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372272, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2128,79 +2128,79 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285069, 888.0: 0.030542986425339362}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.926637554585153, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554325, 888.0: 0.02993348115299335}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.9917094354520332, 580.0: 0.008290564547966837}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.9916798732171157, 580.0: 0.00832012678288431}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968028}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470253, 171.0: 0.019290456956868693, 184.0: 0.0006907963904283363, 593.0: 0.001521609805677143}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877677, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8357348703170029, 500.0: 0.16426512968299709}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9990364541512767, 246.0: 0.0009635458487233014}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9904058244467708, 836.0: 0.009594175553229306}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
+    <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968034}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018794097923397875, 184.0: 0.0006730009233437213, 593.0: 0.0014824628064520752}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9990364541512765, 246.0: 0.0009635458487233014}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869345}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{837.0: 0.872876492194674, 536.0: 0.127123507805326}</t>
   </si>
   <si>
-    <t>{843.0: 0.9833994947672321, 264.0: 0.016600505232767952}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.9943369513921663, 707.0: 0.0056630486078338834}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235837}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290923, 922.0: 0.01008533747090768}</t>
+    <t>{843.0: 0.983399494767232, 264.0: 0.016600505232767952}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.9943369513921658, 707.0: 0.005663048607833885}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235837}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
   </si>
   <si>
     <t>{853.0: 0.9980896815585234, 91.0: 0.0011836270673033465, 202.0: 0.000639488409272582, 680.0: 8.720296490080663e-05}</t>
   </si>
   <si>
-    <t>{854.0: 0.9973455598455598, 976.0: 0.0026544401544401543}</t>
+    <t>{854.0: 0.9973352713178294, 976.0: 0.0026647286821705426}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410212, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257867, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2218,49 +2218,49 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 0.9493815286196788, 922.0: 0.018205948360062927, 3.0: 0.025782688766114184, 418.0: 0.006629834254143646}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.7838997073884361, 930.0: 0.21610029261156383}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9946993577195408, 929.0: 0.005300642280459245}</t>
+    <t>{928.0: 0.9491902834008096, 922.0: 0.01821712400659769, 3.0: 0.02592592592592593, 418.0: 0.006666666666666666}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.7847310040259703, 930.0: 0.21526899597402946}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9945263287545624, 929.0: 0.005473671245437726}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8733408699141656, 702.0: 0.005508299400278559, 249.0: 0.12115083068555589}</t>
+    <t>{933.0: 0.8738662178227145, 702.0: 0.005485663639816162, 249.0: 0.12064811853746933}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9930522596635555, 171.0: 0.003310174198878518, 593.0: 0.0036375661375661382}</t>
+    <t>{937.0: 0.9930546558837804, 171.0: 0.003310182186279268, 593.0: 0.0036351619299405157}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172717, 634.0: 0.08685562738272833}</t>
+    <t>{943.0: 0.914935064935065, 634.0: 0.08506493506493505}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438814, 975.0: 0.005888376856118791}</t>
   </si>
   <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.04623115577889446}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4351,29 +4351,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>632</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4384,29 +4384,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>633</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4428,29 +4428,29 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>634</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>634</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4549,51 +4549,51 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>635</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>636</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4615,29 +4615,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>637</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>637</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4670,40 +4670,40 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>638</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>639</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4725,29 +4725,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>640</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>640</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4769,51 +4769,51 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>641</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>641</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>642</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>642</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4890,40 +4890,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>643</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>644</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4956,29 +4956,29 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>645</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4989,29 +4989,29 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>646</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5022,29 +5022,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>647</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>647</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5077,51 +5077,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>648</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>648</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>649</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>649</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
